--- a/biology/Biologie cellulaire et moléculaire/Arginase/Arginase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Arginase/Arginase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arginase est une hydrolase qui catalyse la réaction :
 L-arginine + H2O  
@@ -516,9 +528,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une métalloenzyme à base de manganèse. Il existe deux isoforme, l'arginase-1 et l'arginase-2. L'arginase-1 est essentiellement hépatique. L'arginase-2 est une enzyme mitochondriale et est retrouvée dans plusieurs organes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une métalloenzyme à base de manganèse. Il existe deux isoforme, l'arginase-1 et l'arginase-2. L'arginase-1 est essentiellement hépatique. L'arginase-2 est une enzyme mitochondriale et est retrouvée dans plusieurs organes.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre son intervention dans le cycle de l'urée, elle intervient indirectement dans la synthèse du monoxyde d'azote (NO), l'arginine étant le substrat des deux réactions : en captant cet acide aminé, elle n'alimente plus l'oxyde nitrique synthase dépendant de cette dernière et diminue la synthèse du NO[2]. le NO étant un vasodilatateur synthétisée par la paroi des vaisseaux, l'arginase pourrait ainsi intervenir dans la vaso-réactivité (dysfonction endothéliale).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre son intervention dans le cycle de l'urée, elle intervient indirectement dans la synthèse du monoxyde d'azote (NO), l'arginine étant le substrat des deux réactions : en captant cet acide aminé, elle n'alimente plus l'oxyde nitrique synthase dépendant de cette dernière et diminue la synthèse du NO. le NO étant un vasodilatateur synthétisée par la paroi des vaisseaux, l'arginase pourrait ainsi intervenir dans la vaso-réactivité (dysfonction endothéliale).
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est activée par les LDL oxydées[3], en cas de diabète[4] et par l'hypoxie[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est activée par les LDL oxydées, en cas de diabète et par l'hypoxie.
 </t>
         </is>
       </c>
